--- a/Excel/test.xlsx
+++ b/Excel/test.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\oF\Python\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\99.oF_git\Python\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7E673E-F241-4A46-A0D8-FDBCDCDA3DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20820" windowHeight="8550"/>
+    <workbookView xWindow="390" yWindow="0" windowWidth="27630" windowHeight="16230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEST" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,26 +28,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <r>
-      <t>y = -1E-25x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> + 1E-22x</t>
+      <t>y =  - 5E-23x</t>
     </r>
     <r>
       <rPr>
@@ -65,26 +47,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 6E-20x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> + 4E-17x</t>
+      <t xml:space="preserve"> - 1E-17x</t>
     </r>
     <r>
       <rPr>
@@ -103,7 +66,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-14x</t>
+      <t xml:space="preserve"> + 1E-14x</t>
     </r>
     <r>
       <rPr>
@@ -122,13 +85,12 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 0.0001x + 0.1958</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t xml:space="preserve"> + 0.0003x + 0.1366</t>
+    </r>
   </si>
   <si>
     <r>
-      <t>y = -2E-24x</t>
+      <t>y = 4E-24x</t>
     </r>
     <r>
       <rPr>
@@ -147,7 +109,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-21x</t>
+      <t xml:space="preserve"> - 3E-21x</t>
     </r>
     <r>
       <rPr>
@@ -166,7 +128,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-19x</t>
+      <t xml:space="preserve"> + 1E-18x</t>
     </r>
     <r>
       <rPr>
@@ -185,7 +147,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 3E-16x</t>
+      <t xml:space="preserve"> - 1E-16x</t>
     </r>
     <r>
       <rPr>
@@ -204,7 +166,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-14x</t>
+      <t xml:space="preserve"> - 2E-14x</t>
     </r>
     <r>
       <rPr>
@@ -223,12 +185,12 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 0.0002x + 0.2419</t>
+      <t xml:space="preserve"> + 0.0003x + 0.2617</t>
     </r>
   </si>
   <si>
     <r>
-      <t>y = 8E-24x</t>
+      <t>y = 1E-23x</t>
     </r>
     <r>
       <rPr>
@@ -247,7 +209,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 8E-21x</t>
+      <t xml:space="preserve"> - 7E-21x</t>
     </r>
     <r>
       <rPr>
@@ -266,7 +228,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-18x</t>
+      <t xml:space="preserve"> + 1E-18x</t>
     </r>
     <r>
       <rPr>
@@ -285,7 +247,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-16x</t>
+      <t xml:space="preserve"> + 3E-16x</t>
     </r>
     <r>
       <rPr>
@@ -304,7 +266,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 5E-14x</t>
+      <t xml:space="preserve"> - 1E-13x</t>
     </r>
     <r>
       <rPr>
@@ -323,12 +285,12 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 0.0003x + 0.3004</t>
+      <t xml:space="preserve"> + 0.0002x + 0.3255</t>
     </r>
   </si>
   <si>
     <r>
-      <t>y = 3E-24x</t>
+      <t>y = -5E-23x</t>
     </r>
     <r>
       <rPr>
@@ -347,7 +309,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 5E-21x</t>
+      <t xml:space="preserve"> + 3E-20x</t>
     </r>
     <r>
       <rPr>
@@ -366,7 +328,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-18x</t>
+      <t xml:space="preserve"> - 9E-18x</t>
     </r>
     <r>
       <rPr>
@@ -385,7 +347,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 8E-16x</t>
+      <t xml:space="preserve"> + 8E-17x</t>
     </r>
     <r>
       <rPr>
@@ -404,7 +366,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-13x</t>
+      <t xml:space="preserve"> + 1E-13x</t>
     </r>
     <r>
       <rPr>
@@ -428,7 +390,7 @@
   </si>
   <si>
     <r>
-      <t>y = -1E-22x</t>
+      <t>y = 8E-23x</t>
     </r>
     <r>
       <rPr>
@@ -447,7 +409,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 9E-20x</t>
+      <t xml:space="preserve"> - 1E-20x</t>
     </r>
     <r>
       <rPr>
@@ -466,7 +428,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 9E-18x</t>
+      <t xml:space="preserve"> - 4E-18x</t>
     </r>
     <r>
       <rPr>
@@ -485,7 +447,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-15x</t>
+      <t xml:space="preserve"> + 3E-15x</t>
     </r>
     <r>
       <rPr>
@@ -504,7 +466,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 6E-13x</t>
+      <t xml:space="preserve"> - 7E-13x</t>
     </r>
     <r>
       <rPr>
@@ -528,26 +490,7 @@
   </si>
   <si>
     <r>
-      <t>y = 5E-23x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> + 6E-21x</t>
+      <t>y =  - 2E-20x</t>
     </r>
     <r>
       <rPr>
@@ -566,7 +509,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 9E-18x</t>
+      <t xml:space="preserve"> - 6E-18x</t>
     </r>
     <r>
       <rPr>
@@ -585,7 +528,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 3E-15x</t>
+      <t xml:space="preserve"> + 4E-15x</t>
     </r>
     <r>
       <rPr>
@@ -604,7 +547,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 7E-13x</t>
+      <t xml:space="preserve"> - 8E-13x</t>
     </r>
     <r>
       <rPr>
@@ -628,7 +571,7 @@
   </si>
   <si>
     <r>
-      <t>y = -5E-23x</t>
+      <t>y = -6E-22x</t>
     </r>
     <r>
       <rPr>
@@ -647,7 +590,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-22x</t>
+      <t xml:space="preserve"> + 2E-19x</t>
     </r>
     <r>
       <rPr>
@@ -666,7 +609,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-17x</t>
+      <t xml:space="preserve"> - 3E-17x</t>
     </r>
     <r>
       <rPr>
@@ -685,7 +628,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 9E-16x</t>
+      <t xml:space="preserve"> - 6E-16x</t>
     </r>
     <r>
       <rPr>
@@ -704,7 +647,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-13x</t>
+      <t xml:space="preserve"> + 5E-13x</t>
     </r>
     <r>
       <rPr>
@@ -728,7 +671,7 @@
   </si>
   <si>
     <r>
-      <t>y = -5E-22x</t>
+      <t>y = 8E-22x</t>
     </r>
     <r>
       <rPr>
@@ -747,7 +690,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-19x</t>
+      <t xml:space="preserve"> - 2E-19x</t>
     </r>
     <r>
       <rPr>
@@ -766,7 +709,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 3E-17x</t>
+      <t xml:space="preserve"> + 5E-17x</t>
     </r>
     <r>
       <rPr>
@@ -785,7 +728,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-15x</t>
+      <t xml:space="preserve"> - 7E-15x</t>
     </r>
     <r>
       <rPr>
@@ -804,7 +747,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 3E-13x</t>
+      <t xml:space="preserve"> + 3E-13x</t>
     </r>
     <r>
       <rPr>
@@ -828,7 +771,7 @@
   </si>
   <si>
     <r>
-      <t>y = 1E-21x</t>
+      <t>y = 4E-22x</t>
     </r>
     <r>
       <rPr>
@@ -866,7 +809,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 8E-17x</t>
+      <t xml:space="preserve"> + 6E-17x</t>
     </r>
     <r>
       <rPr>
@@ -885,7 +828,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 1E-14x</t>
+      <t xml:space="preserve"> - 7E-15x</t>
     </r>
     <r>
       <rPr>
@@ -904,7 +847,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-12x</t>
+      <t xml:space="preserve"> + 4E-13x</t>
     </r>
     <r>
       <rPr>
@@ -928,7 +871,7 @@
   </si>
   <si>
     <r>
-      <t>y = 2E-22x</t>
+      <t>y = -1E-22x</t>
     </r>
     <r>
       <rPr>
@@ -947,7 +890,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-19x</t>
+      <t xml:space="preserve"> - 3E-20x</t>
     </r>
     <r>
       <rPr>
@@ -966,7 +909,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 4E-17x</t>
+      <t xml:space="preserve"> - 3E-18x</t>
     </r>
     <r>
       <rPr>
@@ -985,7 +928,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 6E-15x</t>
+      <t xml:space="preserve"> - 5E-15x</t>
     </r>
     <r>
       <rPr>
@@ -1004,7 +947,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 7E-13x</t>
+      <t xml:space="preserve"> + 6E-13x</t>
     </r>
     <r>
       <rPr>
@@ -1028,7 +971,7 @@
   </si>
   <si>
     <r>
-      <t>y = -1E-22x</t>
+      <t>y = 5E-22x</t>
     </r>
     <r>
       <rPr>
@@ -1047,7 +990,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-19x</t>
+      <t xml:space="preserve"> - 5E-19x</t>
     </r>
     <r>
       <rPr>
@@ -1066,7 +1009,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 1E-18x</t>
+      <t xml:space="preserve"> + 5E-17x</t>
     </r>
     <r>
       <rPr>
@@ -1104,7 +1047,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-12x</t>
+      <t xml:space="preserve"> + 1E-12x</t>
     </r>
     <r>
       <rPr>
@@ -1128,7 +1071,7 @@
   </si>
   <si>
     <r>
-      <t>y = -6E-22x</t>
+      <t>y = 6E-22x</t>
     </r>
     <r>
       <rPr>
@@ -1147,7 +1090,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-19x</t>
+      <t xml:space="preserve"> - 4E-19x</t>
     </r>
     <r>
       <rPr>
@@ -1166,7 +1109,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 8E-19x</t>
+      <t xml:space="preserve"> + 5E-17x</t>
     </r>
     <r>
       <rPr>
@@ -1185,7 +1128,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 7E-15x</t>
+      <t xml:space="preserve"> + 9E-16x</t>
     </r>
     <r>
       <rPr>
@@ -1204,7 +1147,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-12x</t>
+      <t xml:space="preserve"> - 3E-13x</t>
     </r>
     <r>
       <rPr>
@@ -1228,7 +1171,7 @@
   </si>
   <si>
     <r>
-      <t>y = 1E-21x</t>
+      <t>y = -2E-22x</t>
     </r>
     <r>
       <rPr>
@@ -1247,7 +1190,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 3E-19x</t>
+      <t xml:space="preserve"> + 2E-19x</t>
     </r>
     <r>
       <rPr>
@@ -1266,7 +1209,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-17x</t>
+      <t xml:space="preserve"> - 3E-17x</t>
     </r>
     <r>
       <rPr>
@@ -1304,7 +1247,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 6E-13x</t>
+      <t xml:space="preserve"> - 8E-13x</t>
     </r>
     <r>
       <rPr>
@@ -1328,7 +1271,7 @@
   </si>
   <si>
     <r>
-      <t>y = -2E-21x</t>
+      <t>y = 1E-21x</t>
     </r>
     <r>
       <rPr>
@@ -1347,7 +1290,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 4E-19x</t>
+      <t xml:space="preserve"> - 8E-19x</t>
     </r>
     <r>
       <rPr>
@@ -1366,7 +1309,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 5E-17x</t>
+      <t xml:space="preserve"> + 1E-16x</t>
     </r>
     <r>
       <rPr>
@@ -1385,7 +1328,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 5E-15x</t>
+      <t xml:space="preserve"> + 2E-15x</t>
     </r>
     <r>
       <rPr>
@@ -1404,7 +1347,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-12x</t>
+      <t xml:space="preserve"> - 3E-13x</t>
     </r>
     <r>
       <rPr>
@@ -1428,7 +1371,7 @@
   </si>
   <si>
     <r>
-      <t>y = -8E-22x</t>
+      <t>y = 3E-21x</t>
     </r>
     <r>
       <rPr>
@@ -1447,7 +1390,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 4E-19x</t>
+      <t xml:space="preserve"> - 2E-18x</t>
     </r>
     <r>
       <rPr>
@@ -1466,7 +1409,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 1E-16x</t>
+      <t xml:space="preserve"> + 2E-16x</t>
     </r>
     <r>
       <rPr>
@@ -1485,7 +1428,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-14x</t>
+      <t xml:space="preserve"> + 5E-15x</t>
     </r>
     <r>
       <rPr>
@@ -1504,7 +1447,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 3E-12x</t>
+      <t xml:space="preserve"> - 1E-12x</t>
     </r>
     <r>
       <rPr>
@@ -1528,7 +1471,45 @@
   </si>
   <si>
     <r>
-      <t>y = -7E-15x</t>
+      <t>y = 6E-22x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 2E-19x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 6E-17x</t>
     </r>
     <r>
       <rPr>
@@ -1547,7 +1528,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 3E-14x</t>
+      <t xml:space="preserve"> + 2E-14x</t>
     </r>
     <r>
       <rPr>
@@ -1566,7 +1547,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-14x</t>
+      <t xml:space="preserve"> - 2E-12x</t>
     </r>
     <r>
       <rPr>
@@ -1585,12 +1566,12 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 0.0044x + 0.6976</t>
+      <t xml:space="preserve"> + 0.0002x + 0.6976</t>
     </r>
   </si>
   <si>
     <r>
-      <t>y = -3E-21x</t>
+      <t>y = 4E-22x</t>
     </r>
     <r>
       <rPr>
@@ -1609,7 +1590,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-19x</t>
+      <t xml:space="preserve"> - 8E-19x</t>
     </r>
     <r>
       <rPr>
@@ -1628,7 +1609,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-16x</t>
+      <t xml:space="preserve"> + 7E-17x</t>
     </r>
     <r>
       <rPr>
@@ -1647,7 +1628,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-14x</t>
+      <t xml:space="preserve"> + 9E-15x</t>
     </r>
     <r>
       <rPr>
@@ -1666,7 +1647,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 3E-12x</t>
+      <t xml:space="preserve"> - 1E-12x</t>
     </r>
     <r>
       <rPr>
@@ -1690,7 +1671,7 @@
   </si>
   <si>
     <r>
-      <t>y = -6E-22x</t>
+      <t>y = 3E-21x</t>
     </r>
     <r>
       <rPr>
@@ -1709,7 +1690,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 4E-19x</t>
+      <t xml:space="preserve"> - 8E-19x</t>
     </r>
     <r>
       <rPr>
@@ -1728,7 +1709,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 7E-17x</t>
+      <t xml:space="preserve"> + 1E-17x</t>
     </r>
     <r>
       <rPr>
@@ -1747,7 +1728,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-14x</t>
+      <t xml:space="preserve"> + 1E-14x</t>
     </r>
     <r>
       <rPr>
@@ -1809,7 +1790,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-18x</t>
+      <t xml:space="preserve"> + 2E-18x</t>
     </r>
     <r>
       <rPr>
@@ -1828,7 +1809,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 1E-16x</t>
+      <t xml:space="preserve"> - 2E-16x</t>
     </r>
     <r>
       <rPr>
@@ -1847,7 +1828,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-14x</t>
+      <t xml:space="preserve"> + 1E-14x</t>
     </r>
     <r>
       <rPr>
@@ -1866,7 +1847,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 1E-12x</t>
+      <t xml:space="preserve"> + 9E-13x</t>
     </r>
     <r>
       <rPr>
@@ -1890,7 +1871,7 @@
   </si>
   <si>
     <r>
-      <t>y = 8E-22x</t>
+      <t>y = -7E-21x</t>
     </r>
     <r>
       <rPr>
@@ -1909,7 +1890,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 3E-19x</t>
+      <t xml:space="preserve"> + 2E-18x</t>
     </r>
     <r>
       <rPr>
@@ -1928,7 +1909,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-17x</t>
+      <t xml:space="preserve"> - 4E-16x</t>
     </r>
     <r>
       <rPr>
@@ -1966,7 +1947,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 9E-13x</t>
+      <t xml:space="preserve"> + 8E-13x</t>
     </r>
     <r>
       <rPr>
@@ -1990,7 +1971,7 @@
   </si>
   <si>
     <r>
-      <t>y = -3E-21x</t>
+      <t>y = -1E-21x</t>
     </r>
     <r>
       <rPr>
@@ -2028,7 +2009,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-17x</t>
+      <t xml:space="preserve"> - 2E-16x</t>
     </r>
     <r>
       <rPr>
@@ -2047,7 +2028,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-14x</t>
+      <t xml:space="preserve"> + 6E-15x</t>
     </r>
     <r>
       <rPr>
@@ -2066,7 +2047,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 1E-12x</t>
+      <t xml:space="preserve"> + 1E-12x</t>
     </r>
     <r>
       <rPr>
@@ -2090,7 +2071,7 @@
   </si>
   <si>
     <r>
-      <t>y = -3E-21x</t>
+      <t>y = 5E-21x</t>
     </r>
     <r>
       <rPr>
@@ -2109,7 +2090,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-18x</t>
+      <t xml:space="preserve"> - 1E-18x</t>
     </r>
     <r>
       <rPr>
@@ -2128,26 +2109,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-16x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> + 1E-14x</t>
+      <t xml:space="preserve"> - 3E-15x</t>
     </r>
     <r>
       <rPr>
@@ -2166,7 +2128,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-12x</t>
+      <t xml:space="preserve"> - 7E-13x</t>
     </r>
     <r>
       <rPr>
@@ -2190,7 +2152,7 @@
   </si>
   <si>
     <r>
-      <t>y = 1E-20x</t>
+      <t>y = 3E-21x</t>
     </r>
     <r>
       <rPr>
@@ -2209,7 +2171,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 3E-18x</t>
+      <t xml:space="preserve"> - 3E-19x</t>
     </r>
     <r>
       <rPr>
@@ -2228,7 +2190,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-16x</t>
+      <t xml:space="preserve"> - 4E-17x</t>
     </r>
     <r>
       <rPr>
@@ -2247,7 +2209,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 7E-15x</t>
+      <t xml:space="preserve"> + 3E-14x</t>
     </r>
     <r>
       <rPr>
@@ -2266,7 +2228,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-13x</t>
+      <t xml:space="preserve"> - 3E-12x</t>
     </r>
     <r>
       <rPr>
@@ -2290,7 +2252,7 @@
   </si>
   <si>
     <r>
-      <t>y = 3E-21x</t>
+      <t>y = -8E-22x</t>
     </r>
     <r>
       <rPr>
@@ -2309,7 +2271,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-19x</t>
+      <t xml:space="preserve"> - 1E-18x</t>
     </r>
     <r>
       <rPr>
@@ -2328,7 +2290,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 6E-17x</t>
+      <t xml:space="preserve"> + 1E-16x</t>
     </r>
     <r>
       <rPr>
@@ -2347,7 +2309,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-14x</t>
+      <t xml:space="preserve"> + 3E-15x</t>
     </r>
     <r>
       <rPr>
@@ -2366,7 +2328,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 1E-13x</t>
+      <t xml:space="preserve"> - 1E-12x</t>
     </r>
     <r>
       <rPr>
@@ -2390,7 +2352,7 @@
   </si>
   <si>
     <r>
-      <t>y = 2E-21x</t>
+      <t>y = 8E-21x</t>
     </r>
     <r>
       <rPr>
@@ -2409,7 +2371,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 4E-19x</t>
+      <t xml:space="preserve"> - 2E-18x</t>
     </r>
     <r>
       <rPr>
@@ -2428,7 +2390,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 1E-16x</t>
+      <t xml:space="preserve"> + 2E-16x</t>
     </r>
     <r>
       <rPr>
@@ -2447,7 +2409,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-14x</t>
+      <t xml:space="preserve"> - 3E-15x</t>
     </r>
     <r>
       <rPr>
@@ -2466,7 +2428,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-12x</t>
+      <t xml:space="preserve"> - 7E-13x</t>
     </r>
     <r>
       <rPr>
@@ -2509,7 +2471,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 7E-19x</t>
+      <t xml:space="preserve"> - 2E-18x</t>
     </r>
     <r>
       <rPr>
@@ -2528,7 +2490,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 1E-16x</t>
+      <t xml:space="preserve"> + 2E-16x</t>
     </r>
     <r>
       <rPr>
@@ -2547,7 +2509,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 3E-15x</t>
+      <t xml:space="preserve"> - 2E-15x</t>
     </r>
     <r>
       <rPr>
@@ -2566,7 +2528,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-12x</t>
+      <t xml:space="preserve"> - 1E-13x</t>
     </r>
     <r>
       <rPr>
@@ -2590,7 +2552,26 @@
   </si>
   <si>
     <r>
-      <t>y =  - 7E-19x</t>
+      <t>y = -3E-21x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 4E-19x</t>
     </r>
     <r>
       <rPr>
@@ -2609,7 +2590,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-16x</t>
+      <t xml:space="preserve"> - 3E-16x</t>
     </r>
     <r>
       <rPr>
@@ -2628,7 +2609,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 5E-15x</t>
+      <t xml:space="preserve"> + 1E-14x</t>
     </r>
     <r>
       <rPr>
@@ -2647,7 +2628,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-12x</t>
+      <t xml:space="preserve"> + 2E-12x</t>
     </r>
     <r>
       <rPr>
@@ -2671,7 +2652,7 @@
   </si>
   <si>
     <r>
-      <t>y = 7E-21x</t>
+      <t>y = 4E-21x</t>
     </r>
     <r>
       <rPr>
@@ -2690,7 +2671,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 3E-19x</t>
+      <t xml:space="preserve"> - 3E-18x</t>
     </r>
     <r>
       <rPr>
@@ -2709,7 +2690,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 5E-17x</t>
+      <t xml:space="preserve"> + 4E-16x</t>
     </r>
     <r>
       <rPr>
@@ -2728,7 +2709,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-14x</t>
+      <t xml:space="preserve"> - 1E-14x</t>
     </r>
     <r>
       <rPr>
@@ -2747,7 +2728,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 1E-13x</t>
+      <t xml:space="preserve"> + 6E-14x</t>
     </r>
     <r>
       <rPr>
@@ -2766,12 +2747,12 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 0.0002x + 0.8119</t>
+      <t xml:space="preserve"> + 0.0002x + 0.812</t>
     </r>
   </si>
   <si>
     <r>
-      <t>y = -9E-21x</t>
+      <t>y = 7E-21x</t>
     </r>
     <r>
       <rPr>
@@ -2790,7 +2771,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-18x</t>
+      <t xml:space="preserve"> - 7E-19x</t>
     </r>
     <r>
       <rPr>
@@ -2809,7 +2790,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 4E-16x</t>
+      <t xml:space="preserve"> - 6E-17x</t>
     </r>
     <r>
       <rPr>
@@ -2828,7 +2809,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-14x</t>
+      <t xml:space="preserve"> + 2E-14x</t>
     </r>
     <r>
       <rPr>
@@ -2847,7 +2828,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-13x</t>
+      <t xml:space="preserve"> - 3E-12x</t>
     </r>
     <r>
       <rPr>
@@ -2871,7 +2852,7 @@
   </si>
   <si>
     <r>
-      <t>y = -6E-21x</t>
+      <t>y = 6E-21x</t>
     </r>
     <r>
       <rPr>
@@ -2890,7 +2871,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-18x</t>
+      <t xml:space="preserve"> - 1E-18x</t>
     </r>
     <r>
       <rPr>
@@ -2909,7 +2890,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 3E-16x</t>
+      <t xml:space="preserve"> - 1E-17x</t>
     </r>
     <r>
       <rPr>
@@ -2928,26 +2909,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-14x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> + 1E-12x</t>
+      <t xml:space="preserve"> - 8E-13x</t>
     </r>
     <r>
       <rPr>
@@ -2971,26 +2933,7 @@
   </si>
   <si>
     <r>
-      <t>y = 8E-22x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - 4E-19x</t>
+      <t>y =  - 4E-19x</t>
     </r>
     <r>
       <rPr>
@@ -3009,7 +2952,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 9E-17x</t>
+      <t xml:space="preserve"> - 1E-16x</t>
     </r>
     <r>
       <rPr>
@@ -3028,7 +2971,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 8E-15x</t>
+      <t xml:space="preserve"> + 4E-15x</t>
     </r>
     <r>
       <rPr>
@@ -3047,7 +2990,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-12x</t>
+      <t xml:space="preserve"> - 9E-13x</t>
     </r>
     <r>
       <rPr>
@@ -3071,7 +3014,7 @@
   </si>
   <si>
     <r>
-      <t>y = -3E-21x</t>
+      <t>y = 1E-20x</t>
     </r>
     <r>
       <rPr>
@@ -3090,7 +3033,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 4E-19x</t>
+      <t xml:space="preserve"> - 3E-18x</t>
     </r>
     <r>
       <rPr>
@@ -3109,7 +3052,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-16x</t>
+      <t xml:space="preserve"> + 2E-16x</t>
     </r>
     <r>
       <rPr>
@@ -3128,7 +3071,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-14x</t>
+      <t xml:space="preserve"> - 7E-15x</t>
     </r>
     <r>
       <rPr>
@@ -3147,7 +3090,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-12x</t>
+      <t xml:space="preserve"> - 7E-13x</t>
     </r>
     <r>
       <rPr>
@@ -3171,7 +3114,7 @@
   </si>
   <si>
     <r>
-      <t>y = -5E-21x</t>
+      <t>y = -2E-21x</t>
     </r>
     <r>
       <rPr>
@@ -3190,7 +3133,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 7E-19x</t>
+      <t xml:space="preserve"> + 9E-19x</t>
     </r>
     <r>
       <rPr>
@@ -3209,7 +3152,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 1E-16x</t>
+      <t xml:space="preserve"> - 2E-16x</t>
     </r>
     <r>
       <rPr>
@@ -3228,7 +3171,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-14x</t>
+      <t xml:space="preserve"> + 5E-15x</t>
     </r>
     <r>
       <rPr>
@@ -3247,7 +3190,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 1E-12x</t>
+      <t xml:space="preserve"> + 1E-12x</t>
     </r>
     <r>
       <rPr>
@@ -3271,7 +3214,7 @@
   </si>
   <si>
     <r>
-      <t>y = 2E-21x</t>
+      <t>y = -4E-21x</t>
     </r>
     <r>
       <rPr>
@@ -3290,7 +3233,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 7E-19x</t>
+      <t xml:space="preserve"> + 2E-18x</t>
     </r>
     <r>
       <rPr>
@@ -3309,7 +3252,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 9E-17x</t>
+      <t xml:space="preserve"> - 2E-16x</t>
     </r>
     <r>
       <rPr>
@@ -3328,7 +3271,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 7E-15x</t>
+      <t xml:space="preserve"> + 1E-14x</t>
     </r>
     <r>
       <rPr>
@@ -3347,7 +3290,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-12x</t>
+      <t xml:space="preserve"> - 1E-12x</t>
     </r>
     <r>
       <rPr>
@@ -3371,7 +3314,7 @@
   </si>
   <si>
     <r>
-      <t>y = -3E-21x</t>
+      <t>y = 5E-21x</t>
     </r>
     <r>
       <rPr>
@@ -3390,7 +3333,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 7E-19x</t>
+      <t xml:space="preserve"> - 1E-18x</t>
     </r>
     <r>
       <rPr>
@@ -3409,7 +3352,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-16x</t>
+      <t xml:space="preserve"> + 8E-17x</t>
     </r>
     <r>
       <rPr>
@@ -3428,26 +3371,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-14x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> + 1E-12x</t>
+      <t xml:space="preserve"> - 7E-13x</t>
     </r>
     <r>
       <rPr>
@@ -3471,7 +3395,7 @@
   </si>
   <si>
     <r>
-      <t>y = -6E-21x</t>
+      <t>y = 3E-21x</t>
     </r>
     <r>
       <rPr>
@@ -3490,7 +3414,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-18x</t>
+      <t xml:space="preserve"> - 9E-19x</t>
     </r>
     <r>
       <rPr>
@@ -3509,7 +3433,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-16x</t>
+      <t xml:space="preserve"> + 8E-17x</t>
     </r>
     <r>
       <rPr>
@@ -3528,7 +3452,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-14x</t>
+      <t xml:space="preserve"> + 4E-15x</t>
     </r>
     <r>
       <rPr>
@@ -3547,7 +3471,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-12x</t>
+      <t xml:space="preserve"> - 9E-13x</t>
     </r>
     <r>
       <rPr>
@@ -3571,7 +3495,7 @@
   </si>
   <si>
     <r>
-      <t>y = 2E-21x</t>
+      <t>y = 1E-20x</t>
     </r>
     <r>
       <rPr>
@@ -3590,7 +3514,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 1E-20x</t>
+      <t xml:space="preserve"> - 3E-18x</t>
     </r>
     <r>
       <rPr>
@@ -3609,7 +3533,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 1E-16x</t>
+      <t xml:space="preserve"> + 2E-16x</t>
     </r>
     <r>
       <rPr>
@@ -3628,7 +3552,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-14x</t>
+      <t xml:space="preserve"> - 4E-15x</t>
     </r>
     <r>
       <rPr>
@@ -3647,7 +3571,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-12x</t>
+      <t xml:space="preserve"> - 7E-13x</t>
     </r>
     <r>
       <rPr>
@@ -3671,7 +3595,7 @@
   </si>
   <si>
     <r>
-      <t>y = -8E-21x</t>
+      <t>y = 5E-21x</t>
     </r>
     <r>
       <rPr>
@@ -3690,7 +3614,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-18x</t>
+      <t xml:space="preserve"> - 2E-18x</t>
     </r>
     <r>
       <rPr>
@@ -3709,7 +3633,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 3E-16x</t>
+      <t xml:space="preserve"> + 1E-17x</t>
     </r>
     <r>
       <rPr>
@@ -3728,7 +3652,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-14x</t>
+      <t xml:space="preserve"> + 2E-15x</t>
     </r>
     <r>
       <rPr>
@@ -3747,7 +3671,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-12x</t>
+      <t xml:space="preserve"> - 7E-13x</t>
     </r>
     <r>
       <rPr>
@@ -3771,7 +3695,7 @@
   </si>
   <si>
     <r>
-      <t>y = 5E-21x</t>
+      <t>y = 8E-22x</t>
     </r>
     <r>
       <rPr>
@@ -3790,7 +3714,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 7E-19x</t>
+      <t xml:space="preserve"> - 2E-19x</t>
     </r>
     <r>
       <rPr>
@@ -3809,7 +3733,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 4E-17x</t>
+      <t xml:space="preserve"> - 1E-16x</t>
     </r>
     <r>
       <rPr>
@@ -3828,7 +3752,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 4E-15x</t>
+      <t xml:space="preserve"> + 5E-15x</t>
     </r>
     <r>
       <rPr>
@@ -3847,7 +3771,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-12x</t>
+      <t xml:space="preserve"> - 9E-13x</t>
     </r>
     <r>
       <rPr>
@@ -3871,7 +3795,7 @@
   </si>
   <si>
     <r>
-      <t>y = -8E-21x</t>
+      <t>y = 1E-20x</t>
     </r>
     <r>
       <rPr>
@@ -3890,7 +3814,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-18x</t>
+      <t xml:space="preserve"> - 3E-18x</t>
     </r>
     <r>
       <rPr>
@@ -3909,7 +3833,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 4E-16x</t>
+      <t xml:space="preserve"> + 2E-16x</t>
     </r>
     <r>
       <rPr>
@@ -3928,7 +3852,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-14x</t>
+      <t xml:space="preserve"> - 4E-15x</t>
     </r>
     <r>
       <rPr>
@@ -3947,7 +3871,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-12x</t>
+      <t xml:space="preserve"> - 7E-13x</t>
     </r>
     <r>
       <rPr>
@@ -3971,7 +3895,7 @@
   </si>
   <si>
     <r>
-      <t>y = 7E-21x</t>
+      <t>y = 8E-22x</t>
     </r>
     <r>
       <rPr>
@@ -3990,7 +3914,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 9E-19x</t>
+      <t xml:space="preserve"> + 2E-19x</t>
     </r>
     <r>
       <rPr>
@@ -4009,7 +3933,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 4E-18x</t>
+      <t xml:space="preserve"> - 3E-17x</t>
     </r>
     <r>
       <rPr>
@@ -4028,7 +3952,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 8E-15x</t>
+      <t xml:space="preserve"> + 4E-15x</t>
     </r>
     <r>
       <rPr>
@@ -4047,7 +3971,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-12x</t>
+      <t xml:space="preserve"> - 9E-13x</t>
     </r>
     <r>
       <rPr>
@@ -4071,7 +3995,7 @@
   </si>
   <si>
     <r>
-      <t>y = -8E-21x</t>
+      <t>y = 5E-21x</t>
     </r>
     <r>
       <rPr>
@@ -4090,7 +4014,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-18x</t>
+      <t xml:space="preserve"> + 3E-18x</t>
     </r>
     <r>
       <rPr>
@@ -4147,7 +4071,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-12x</t>
+      <t xml:space="preserve"> + 1E-12x</t>
     </r>
     <r>
       <rPr>
@@ -4171,7 +4095,7 @@
   </si>
   <si>
     <r>
-      <t>y = -4E-21x</t>
+      <t>y = 1E-20x</t>
     </r>
     <r>
       <rPr>
@@ -4190,7 +4114,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 7E-19x</t>
+      <t xml:space="preserve"> - 2E-18x</t>
     </r>
     <r>
       <rPr>
@@ -4209,7 +4133,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-16x</t>
+      <t xml:space="preserve"> + 1E-16x</t>
     </r>
     <r>
       <rPr>
@@ -4228,7 +4152,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-14x</t>
+      <t xml:space="preserve"> - 3E-15x</t>
     </r>
     <r>
       <rPr>
@@ -4247,7 +4171,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-12x</t>
+      <t xml:space="preserve"> - 8E-13x</t>
     </r>
     <r>
       <rPr>
@@ -4271,7 +4195,7 @@
   </si>
   <si>
     <r>
-      <t>y = -4E-21x</t>
+      <t>y = 8E-22x</t>
     </r>
     <r>
       <rPr>
@@ -4290,7 +4214,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-18x</t>
+      <t xml:space="preserve"> - 4E-19x</t>
     </r>
     <r>
       <rPr>
@@ -4309,7 +4233,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 3E-16x</t>
+      <t xml:space="preserve"> - 4E-17x</t>
     </r>
     <r>
       <rPr>
@@ -4328,7 +4252,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-14x</t>
+      <t xml:space="preserve"> + 5E-15x</t>
     </r>
     <r>
       <rPr>
@@ -4347,7 +4271,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-12x</t>
+      <t xml:space="preserve"> - 8E-13x</t>
     </r>
     <r>
       <rPr>
@@ -4371,7 +4295,7 @@
   </si>
   <si>
     <r>
-      <t>y = -7E-21x</t>
+      <t>y = 5E-21x</t>
     </r>
     <r>
       <rPr>
@@ -4390,7 +4314,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-18x</t>
+      <t xml:space="preserve"> + 9E-19x</t>
     </r>
     <r>
       <rPr>
@@ -4409,7 +4333,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 3E-16x</t>
+      <t xml:space="preserve"> - 7E-16x</t>
     </r>
     <r>
       <rPr>
@@ -4428,7 +4352,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 5E-14x</t>
+      <t xml:space="preserve"> + 9E-14x</t>
     </r>
     <r>
       <rPr>
@@ -4471,7 +4395,7 @@
   </si>
   <si>
     <r>
-      <t>y = 3E-21x</t>
+      <t>y = 1E-20x</t>
     </r>
     <r>
       <rPr>
@@ -4490,7 +4414,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 4E-19x</t>
+      <t xml:space="preserve"> - 1E-18x</t>
     </r>
     <r>
       <rPr>
@@ -4509,7 +4433,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-16x</t>
+      <t xml:space="preserve"> + 2E-16x</t>
     </r>
     <r>
       <rPr>
@@ -4528,7 +4452,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 9E-15x</t>
+      <t xml:space="preserve"> - 4E-15x</t>
     </r>
     <r>
       <rPr>
@@ -4547,7 +4471,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-12x</t>
+      <t xml:space="preserve"> - 6E-13x</t>
     </r>
     <r>
       <rPr>
@@ -4571,7 +4495,7 @@
   </si>
   <si>
     <r>
-      <t>y = 1E-20x</t>
+      <t>y = -3E-21x</t>
     </r>
     <r>
       <rPr>
@@ -4590,7 +4514,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-18x</t>
+      <t xml:space="preserve"> + 2E-18x</t>
     </r>
     <r>
       <rPr>
@@ -4609,7 +4533,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-16x</t>
+      <t xml:space="preserve"> - 2E-16x</t>
     </r>
     <r>
       <rPr>
@@ -4628,7 +4552,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-14x</t>
+      <t xml:space="preserve"> - 5E-15x</t>
     </r>
     <r>
       <rPr>
@@ -4647,7 +4571,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-12x</t>
+      <t xml:space="preserve"> + 1E-12x</t>
     </r>
     <r>
       <rPr>
@@ -4671,7 +4595,7 @@
   </si>
   <si>
     <r>
-      <t>y = -6E-21x</t>
+      <t>y = 4E-21x</t>
     </r>
     <r>
       <rPr>
@@ -4690,7 +4614,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-18x</t>
+      <t xml:space="preserve"> - 7E-19x</t>
     </r>
     <r>
       <rPr>
@@ -4709,7 +4633,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 5E-16x</t>
+      <t xml:space="preserve"> - 3E-17x</t>
     </r>
     <r>
       <rPr>
@@ -4747,7 +4671,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-13x</t>
+      <t xml:space="preserve"> - 3E-12x</t>
     </r>
     <r>
       <rPr>
@@ -4771,7 +4695,7 @@
   </si>
   <si>
     <r>
-      <t>y = -1E-20x</t>
+      <t>y = -8E-21x</t>
     </r>
     <r>
       <rPr>
@@ -4790,7 +4714,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-19x</t>
+      <t xml:space="preserve"> + 2E-18x</t>
     </r>
     <r>
       <rPr>
@@ -4809,7 +4733,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 6E-17x</t>
+      <t xml:space="preserve"> - 2E-16x</t>
     </r>
     <r>
       <rPr>
@@ -4847,7 +4771,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 4E-12x</t>
+      <t xml:space="preserve"> - 2E-12x</t>
     </r>
     <r>
       <rPr>
@@ -4871,7 +4795,7 @@
   </si>
   <si>
     <r>
-      <t>y = -6E-21x</t>
+      <t>y = 4E-21x</t>
     </r>
     <r>
       <rPr>
@@ -4890,7 +4814,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-18x</t>
+      <t xml:space="preserve"> + 2E-19x</t>
     </r>
     <r>
       <rPr>
@@ -4909,7 +4833,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 4E-16x</t>
+      <t xml:space="preserve"> + 6E-17x</t>
     </r>
     <r>
       <rPr>
@@ -4928,7 +4852,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 4E-14x</t>
+      <t xml:space="preserve"> - 1E-14x</t>
     </r>
     <r>
       <rPr>
@@ -4947,7 +4871,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 1E-12x</t>
+      <t xml:space="preserve"> + 3E-13x</t>
     </r>
     <r>
       <rPr>
@@ -4971,7 +4895,7 @@
   </si>
   <si>
     <r>
-      <t>y = 6E-21x</t>
+      <t>y = -5E-21x</t>
     </r>
     <r>
       <rPr>
@@ -4990,7 +4914,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 9E-19x</t>
+      <t xml:space="preserve"> - 4E-19x</t>
     </r>
     <r>
       <rPr>
@@ -5009,7 +4933,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-17x</t>
+      <t xml:space="preserve"> - 3E-17x</t>
     </r>
     <r>
       <rPr>
@@ -5028,7 +4952,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 3E-15x</t>
+      <t xml:space="preserve"> - 7E-15x</t>
     </r>
     <r>
       <rPr>
@@ -5047,7 +4971,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 9E-13x</t>
+      <t xml:space="preserve"> - 1E-13x</t>
     </r>
     <r>
       <rPr>
@@ -5071,7 +4995,7 @@
   </si>
   <si>
     <r>
-      <t>y = 4E-21x</t>
+      <t>y = 8E-22x</t>
     </r>
     <r>
       <rPr>
@@ -5090,7 +5014,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 3E-20x</t>
+      <t xml:space="preserve"> - 2E-18x</t>
     </r>
     <r>
       <rPr>
@@ -5109,7 +5033,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 6E-17x</t>
+      <t xml:space="preserve"> + 3E-16x</t>
     </r>
     <r>
       <rPr>
@@ -5128,7 +5052,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 5E-15x</t>
+      <t xml:space="preserve"> - 7E-15x</t>
     </r>
     <r>
       <rPr>
@@ -5147,7 +5071,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-12x</t>
+      <t xml:space="preserve"> - 2E-13x</t>
     </r>
     <r>
       <rPr>
@@ -5171,7 +5095,7 @@
   </si>
   <si>
     <r>
-      <t>y = -2E-20x</t>
+      <t>y = -2E-21x</t>
     </r>
     <r>
       <rPr>
@@ -5190,26 +5114,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 5E-18x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - 7E-16x</t>
+      <t xml:space="preserve"> - 5E-16x</t>
     </r>
     <r>
       <rPr>
@@ -5228,7 +5133,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 7E-14x</t>
+      <t xml:space="preserve"> + 1E-13x</t>
     </r>
     <r>
       <rPr>
@@ -5271,7 +5176,7 @@
   </si>
   <si>
     <r>
-      <t>y = 2E-21x</t>
+      <t>y = 1E-20x</t>
     </r>
     <r>
       <rPr>
@@ -5290,7 +5195,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 7E-19x</t>
+      <t xml:space="preserve"> - 4E-18x</t>
     </r>
     <r>
       <rPr>
@@ -5309,7 +5214,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-16x</t>
+      <t xml:space="preserve"> + 1E-16x</t>
     </r>
     <r>
       <rPr>
@@ -5347,7 +5252,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 4E-13x</t>
+      <t xml:space="preserve"> - 3E-12x</t>
     </r>
     <r>
       <rPr>
@@ -5371,26 +5276,7 @@
   </si>
   <si>
     <r>
-      <t>y = 3E-21x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> + 2E-19x</t>
+      <t>y =  - 2E-19x</t>
     </r>
     <r>
       <rPr>
@@ -5409,7 +5295,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-16x</t>
+      <t xml:space="preserve"> - 8E-17x</t>
     </r>
     <r>
       <rPr>
@@ -5428,7 +5314,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-14x</t>
+      <t xml:space="preserve"> + 3E-14x</t>
     </r>
     <r>
       <rPr>
@@ -5447,7 +5333,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 4E-13x</t>
+      <t xml:space="preserve"> - 3E-12x</t>
     </r>
     <r>
       <rPr>
@@ -5471,7 +5357,7 @@
   </si>
   <si>
     <r>
-      <t>y = -8E-22x</t>
+      <t>y = 3E-21x</t>
     </r>
     <r>
       <rPr>
@@ -5490,7 +5376,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 7E-19x</t>
+      <t xml:space="preserve"> - 2E-18x</t>
     </r>
     <r>
       <rPr>
@@ -5509,7 +5395,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 1E-16x</t>
+      <t xml:space="preserve"> + 1E-17x</t>
     </r>
     <r>
       <rPr>
@@ -5528,7 +5414,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-14x</t>
+      <t xml:space="preserve"> - 9E-16x</t>
     </r>
     <r>
       <rPr>
@@ -5547,7 +5433,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-12x</t>
+      <t xml:space="preserve"> - 8E-13x</t>
     </r>
     <r>
       <rPr>
@@ -5571,7 +5457,7 @@
   </si>
   <si>
     <r>
-      <t>y = 5E-21x</t>
+      <t>y = 2E-20x</t>
     </r>
     <r>
       <rPr>
@@ -5590,7 +5476,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 3E-18x</t>
+      <t xml:space="preserve"> - 6E-18x</t>
     </r>
     <r>
       <rPr>
@@ -5609,7 +5495,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 6E-16x</t>
+      <t xml:space="preserve"> + 3E-16x</t>
     </r>
     <r>
       <rPr>
@@ -5628,7 +5514,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 4E-14x</t>
+      <t xml:space="preserve"> - 2E-15x</t>
     </r>
     <r>
       <rPr>
@@ -5647,7 +5533,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 5E-13x</t>
+      <t xml:space="preserve"> + 2E-12x</t>
     </r>
     <r>
       <rPr>
@@ -5671,7 +5557,7 @@
   </si>
   <si>
     <r>
-      <t>y = -9E-21x</t>
+      <t>y = 2E-20x</t>
     </r>
     <r>
       <rPr>
@@ -5690,7 +5576,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-18x</t>
+      <t xml:space="preserve"> - 4E-18x</t>
     </r>
     <r>
       <rPr>
@@ -5709,7 +5595,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 3E-16x</t>
+      <t xml:space="preserve"> + 2E-16x</t>
     </r>
     <r>
       <rPr>
@@ -5728,7 +5614,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-14x</t>
+      <t xml:space="preserve"> - 6E-15x</t>
     </r>
     <r>
       <rPr>
@@ -5747,7 +5633,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-12x</t>
+      <t xml:space="preserve"> - 5E-13x</t>
     </r>
     <r>
       <rPr>
@@ -5790,7 +5676,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-18x</t>
+      <t xml:space="preserve"> + 4E-18x</t>
     </r>
     <r>
       <rPr>
@@ -5809,7 +5695,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-16x</t>
+      <t xml:space="preserve"> - 6E-16x</t>
     </r>
     <r>
       <rPr>
@@ -5847,7 +5733,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 4E-12x</t>
+      <t xml:space="preserve"> - 3E-12x</t>
     </r>
     <r>
       <rPr>
@@ -5871,7 +5757,7 @@
   </si>
   <si>
     <r>
-      <t>y = -5E-21x</t>
+      <t>y = 8E-21x</t>
     </r>
     <r>
       <rPr>
@@ -5890,7 +5776,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-18x</t>
+      <t xml:space="preserve"> - 2E-18x</t>
     </r>
     <r>
       <rPr>
@@ -5909,7 +5795,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 4E-16x</t>
+      <t xml:space="preserve"> + 1E-16x</t>
     </r>
     <r>
       <rPr>
@@ -5928,7 +5814,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-14x</t>
+      <t xml:space="preserve"> + 2E-14x</t>
     </r>
     <r>
       <rPr>
@@ -5947,7 +5833,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-13x</t>
+      <t xml:space="preserve"> - 3E-12x</t>
     </r>
     <r>
       <rPr>
@@ -5971,7 +5857,7 @@
   </si>
   <si>
     <r>
-      <t>y = -5E-21x</t>
+      <t>y = -2E-20x</t>
     </r>
     <r>
       <rPr>
@@ -5990,7 +5876,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-20x</t>
+      <t xml:space="preserve"> + 5E-18x</t>
     </r>
     <r>
       <rPr>
@@ -6009,7 +5895,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 1E-16x</t>
+      <t xml:space="preserve"> - 5E-16x</t>
     </r>
     <r>
       <rPr>
@@ -6028,7 +5914,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-14x</t>
+      <t xml:space="preserve"> + 5E-14x</t>
     </r>
     <r>
       <rPr>
@@ -6047,7 +5933,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 4E-12x</t>
+      <t xml:space="preserve"> - 3E-12x</t>
     </r>
     <r>
       <rPr>
@@ -6071,7 +5957,7 @@
   </si>
   <si>
     <r>
-      <t>y = 7E-21x</t>
+      <t>y = 3E-21x</t>
     </r>
     <r>
       <rPr>
@@ -6090,7 +5976,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 5E-19x</t>
+      <t xml:space="preserve"> - 2E-18x</t>
     </r>
     <r>
       <rPr>
@@ -6109,7 +5995,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 8E-17x</t>
+      <t xml:space="preserve"> + 6E-17x</t>
     </r>
     <r>
       <rPr>
@@ -6128,7 +6014,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-15x</t>
+      <t xml:space="preserve"> - 2E-14x</t>
     </r>
     <r>
       <rPr>
@@ -6147,7 +6033,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 7E-13x</t>
+      <t xml:space="preserve"> + 3E-12x</t>
     </r>
     <r>
       <rPr>
@@ -6171,7 +6057,7 @@
   </si>
   <si>
     <r>
-      <t>y = 8E-22x</t>
+      <t>y = -1E-20x</t>
     </r>
     <r>
       <rPr>
@@ -6190,7 +6076,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-18x</t>
+      <t xml:space="preserve"> + 5E-18x</t>
     </r>
     <r>
       <rPr>
@@ -6209,7 +6095,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-16x</t>
+      <t xml:space="preserve"> - 5E-16x</t>
     </r>
     <r>
       <rPr>
@@ -6228,7 +6114,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-14x</t>
+      <t xml:space="preserve"> + 4E-14x</t>
     </r>
     <r>
       <rPr>
@@ -6247,7 +6133,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 4E-12x</t>
+      <t xml:space="preserve"> - 3E-12x</t>
     </r>
     <r>
       <rPr>
@@ -6271,7 +6157,7 @@
   </si>
   <si>
     <r>
-      <t>y = 3E-21x</t>
+      <t>y = -2E-20x</t>
     </r>
     <r>
       <rPr>
@@ -6290,7 +6176,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-19x</t>
+      <t xml:space="preserve"> + 5E-18x</t>
     </r>
     <r>
       <rPr>
@@ -6309,7 +6195,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 6E-17x</t>
+      <t xml:space="preserve"> - 6E-16x</t>
     </r>
     <r>
       <rPr>
@@ -6328,7 +6214,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-14x</t>
+      <t xml:space="preserve"> + 4E-14x</t>
     </r>
     <r>
       <rPr>
@@ -6347,7 +6233,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 4E-12x</t>
+      <t xml:space="preserve"> - 3E-12x</t>
     </r>
     <r>
       <rPr>
@@ -6371,7 +6257,7 @@
   </si>
   <si>
     <r>
-      <t>y = -2E-21x</t>
+      <t>y = 8E-22x</t>
     </r>
     <r>
       <rPr>
@@ -6390,7 +6276,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 7E-19x</t>
+      <t xml:space="preserve"> - 4E-19x</t>
     </r>
     <r>
       <rPr>
@@ -6409,7 +6295,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 3E-16x</t>
+      <t xml:space="preserve"> + 6E-17x</t>
     </r>
     <r>
       <rPr>
@@ -6447,7 +6333,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-13x</t>
+      <t xml:space="preserve"> - 3E-12x</t>
     </r>
     <r>
       <rPr>
@@ -6471,7 +6357,7 @@
   </si>
   <si>
     <r>
-      <t>y = -1E-20x</t>
+      <t>y = -2E-20x</t>
     </r>
     <r>
       <rPr>
@@ -6490,7 +6376,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-18x</t>
+      <t xml:space="preserve"> + 2E-18x</t>
     </r>
     <r>
       <rPr>
@@ -6509,7 +6395,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-16x</t>
+      <t xml:space="preserve"> - 4E-16x</t>
     </r>
     <r>
       <rPr>
@@ -6528,7 +6414,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 5E-14x</t>
+      <t xml:space="preserve"> + 9E-16x</t>
     </r>
     <r>
       <rPr>
@@ -6571,7 +6457,7 @@
   </si>
   <si>
     <r>
-      <t>y = 8E-21x</t>
+      <t>y = 1E-20x</t>
     </r>
     <r>
       <rPr>
@@ -6590,7 +6476,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-18x</t>
+      <t xml:space="preserve"> - 5E-18x</t>
     </r>
     <r>
       <rPr>
@@ -6609,7 +6495,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-16x</t>
+      <t xml:space="preserve"> + 3E-16x</t>
     </r>
     <r>
       <rPr>
@@ -6628,7 +6514,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-14x</t>
+      <t xml:space="preserve"> - 3E-14x</t>
     </r>
     <r>
       <rPr>
@@ -6647,7 +6533,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-12x</t>
+      <t xml:space="preserve"> + 3E-12x</t>
     </r>
     <r>
       <rPr>
@@ -6690,7 +6576,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-18x</t>
+      <t xml:space="preserve"> + 2E-18x</t>
     </r>
     <r>
       <rPr>
@@ -6747,7 +6633,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 4E-12x</t>
+      <t xml:space="preserve"> - 3E-12x</t>
     </r>
     <r>
       <rPr>
@@ -6771,7 +6657,7 @@
   </si>
   <si>
     <r>
-      <t>y = -1E-20x</t>
+      <t>y = 3E-21x</t>
     </r>
     <r>
       <rPr>
@@ -6790,7 +6676,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-18x</t>
+      <t xml:space="preserve"> - 2E-18x</t>
     </r>
     <r>
       <rPr>
@@ -6809,26 +6695,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 3E-16x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> + 1E-14x</t>
+      <t xml:space="preserve"> - 2E-14x</t>
     </r>
     <r>
       <rPr>
@@ -6847,7 +6714,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 9E-13x</t>
+      <t xml:space="preserve"> + 3E-12x</t>
     </r>
     <r>
       <rPr>
@@ -6871,7 +6738,7 @@
   </si>
   <si>
     <r>
-      <t>y = -9E-21x</t>
+      <t>y = -4E-21x</t>
     </r>
     <r>
       <rPr>
@@ -6890,7 +6757,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-18x</t>
+      <t xml:space="preserve"> + 1E-18x</t>
     </r>
     <r>
       <rPr>
@@ -6928,7 +6795,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-14x</t>
+      <t xml:space="preserve"> + 4E-14x</t>
     </r>
     <r>
       <rPr>
@@ -6947,7 +6814,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-13x</t>
+      <t xml:space="preserve"> - 4E-12x</t>
     </r>
     <r>
       <rPr>
@@ -6971,7 +6838,7 @@
   </si>
   <si>
     <r>
-      <t>y = -1E-20x</t>
+      <t>y = 8E-21x</t>
     </r>
     <r>
       <rPr>
@@ -6990,7 +6857,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-18x</t>
+      <t xml:space="preserve"> - 3E-18x</t>
     </r>
     <r>
       <rPr>
@@ -7009,7 +6876,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 3E-16x</t>
+      <t xml:space="preserve"> + 2E-16x</t>
     </r>
     <r>
       <rPr>
@@ -7028,7 +6895,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-14x</t>
+      <t xml:space="preserve"> - 2E-14x</t>
     </r>
     <r>
       <rPr>
@@ -7047,7 +6914,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 9E-13x</t>
+      <t xml:space="preserve"> + 3E-12x</t>
     </r>
     <r>
       <rPr>
@@ -7071,7 +6938,7 @@
   </si>
   <si>
     <r>
-      <t>y = 4E-21x</t>
+      <t>y = 2E-20x</t>
     </r>
     <r>
       <rPr>
@@ -7090,7 +6957,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 5E-19x</t>
+      <t xml:space="preserve"> - 4E-18x</t>
     </r>
     <r>
       <rPr>
@@ -7109,7 +6976,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 5E-17x</t>
+      <t xml:space="preserve"> + 2E-16x</t>
     </r>
     <r>
       <rPr>
@@ -7128,7 +6995,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-14x</t>
+      <t xml:space="preserve"> - 6E-15x</t>
     </r>
     <r>
       <rPr>
@@ -7147,7 +7014,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-12x</t>
+      <t xml:space="preserve"> - 7E-13x</t>
     </r>
     <r>
       <rPr>
@@ -7171,7 +7038,7 @@
   </si>
   <si>
     <r>
-      <t>y = -7E-21x</t>
+      <t>y = 2E-20x</t>
     </r>
     <r>
       <rPr>
@@ -7190,7 +7057,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 8E-19x</t>
+      <t xml:space="preserve"> - 4E-18x</t>
     </r>
     <r>
       <rPr>
@@ -7209,7 +7076,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 5E-16x</t>
+      <t xml:space="preserve"> + 4E-16x</t>
     </r>
     <r>
       <rPr>
@@ -7228,7 +7095,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 4E-14x</t>
+      <t xml:space="preserve"> - 4E-15x</t>
     </r>
     <r>
       <rPr>
@@ -7247,7 +7114,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-13x</t>
+      <t xml:space="preserve"> + 2E-12x</t>
     </r>
     <r>
       <rPr>
@@ -7271,7 +7138,26 @@
   </si>
   <si>
     <r>
-      <t>y =  - 2E-16x</t>
+      <t>y = 9E-21x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 6E-17x</t>
     </r>
     <r>
       <rPr>
@@ -7290,7 +7176,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-14x</t>
+      <t xml:space="preserve"> + 3E-14x</t>
     </r>
     <r>
       <rPr>
@@ -7309,7 +7195,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 4E-13x</t>
+      <t xml:space="preserve"> - 3E-12x</t>
     </r>
     <r>
       <rPr>
@@ -7333,7 +7219,7 @@
   </si>
   <si>
     <r>
-      <t>y = -8E-22x</t>
+      <t>y = -3E-21x</t>
     </r>
     <r>
       <rPr>
@@ -7352,7 +7238,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 4E-19x</t>
+      <t xml:space="preserve"> + 7E-19x</t>
     </r>
     <r>
       <rPr>
@@ -7409,7 +7295,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-13x</t>
+      <t xml:space="preserve"> - 4E-12x</t>
     </r>
     <r>
       <rPr>
@@ -7433,17 +7319,15 @@
   </si>
   <si>
     <r>
-      <t>y = -9E-21x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+      <t>y = -7E-21x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -7451,22 +7335,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 7E-19x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 9E-19x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -7474,22 +7354,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 1E-16x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 2E-16x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -7497,10 +7373,8 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 3E-14x</t>
     </r>
@@ -7509,10 +7383,8 @@
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -7520,22 +7392,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 4E-12x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 3E-12x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -7543,27 +7411,23 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 5E-06x + 0.8741</t>
     </r>
   </si>
   <si>
     <r>
-      <t>y = -6E-21x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+      <t>y = -2E-20x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -7571,22 +7435,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 9E-19x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 4E-18x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -7594,22 +7454,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 6E-17x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 4E-16x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -7617,10 +7473,8 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 4E-14x</t>
     </r>
@@ -7629,10 +7483,8 @@
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -7640,22 +7492,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 4E-12x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 3E-12x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -7663,27 +7511,23 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - 3E-05x + 0.8745</t>
     </r>
   </si>
   <si>
     <r>
-      <t>y = -7E-21x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+      <t>y = 1E-20x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -7691,22 +7535,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 2E-18x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 9E-19x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -7714,45 +7554,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 3E-16x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 3E-14x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 2E-14x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -7760,22 +7573,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 4E-13x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 3E-12x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -7783,27 +7592,23 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - 2E-05x + 0.8726</t>
     </r>
   </si>
   <si>
     <r>
-      <t>y = 5E-21x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+      <t>y = 2E-21x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -7811,22 +7616,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 6E-19x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 7E-19x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -7834,22 +7635,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 2E-16x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 8E-17x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -7857,22 +7654,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 2E-14x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 3E-14x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -7880,22 +7673,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 4E-13x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 3E-12x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -7903,27 +7692,23 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 4E-05x + 0.8709</t>
     </r>
   </si>
   <si>
     <r>
-      <t>y = -2E-20x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+      <t>y = 2E-20x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -7931,22 +7716,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 3E-18x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 7E-18x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -7954,22 +7735,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 5E-16x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 4E-16x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -7977,22 +7754,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 2E-14x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 4E-14x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -8000,22 +7773,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 9E-13x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 3E-12x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -8023,27 +7792,61 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 5E-06x + 0.8739</t>
     </r>
   </si>
   <si>
     <r>
-      <t>y =  - 3E-17x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+      <t>y = -1E-20x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 1E-18x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 3E-16x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -8051,10 +7854,8 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 3E-14x</t>
     </r>
@@ -8063,10 +7864,8 @@
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -8074,22 +7873,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 4E-12x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 3E-12x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -8097,10 +7892,8 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 5E-06x + 0.8743</t>
     </r>
@@ -8114,10 +7907,8 @@
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -8125,10 +7916,8 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 2E-18x</t>
     </r>
@@ -8137,10 +7926,8 @@
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -8148,22 +7935,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 2E-16x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 3E-16x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -8171,22 +7954,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 4E-14x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 3E-14x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -8194,22 +7973,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 4E-12x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 3E-12x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -8217,27 +7992,23 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 4E-06x + 0.8747</t>
     </r>
   </si>
   <si>
     <r>
-      <t>y = -2E-20x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+      <t>y = -1E-20x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -8245,10 +8016,8 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 3E-18x</t>
     </r>
@@ -8257,10 +8026,8 @@
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -8268,10 +8035,8 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - 4E-16x</t>
     </r>
@@ -8280,10 +8045,8 @@
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -8291,10 +8054,8 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 4E-14x</t>
     </r>
@@ -8303,10 +8064,8 @@
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -8314,22 +8073,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 4E-12x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 3E-12x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -8337,27 +8092,23 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 4E-06x + 0.875</t>
     </r>
   </si>
   <si>
     <r>
-      <t>y = -8E-21x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+      <t>y = -1E-20x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -8365,22 +8116,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 2E-18x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 3E-18x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -8388,10 +8135,8 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - 3E-16x</t>
     </r>
@@ -8400,10 +8145,8 @@
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -8411,22 +8154,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 4E-14x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 3E-14x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -8434,22 +8173,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 4E-12x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 3E-12x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -8457,27 +8192,23 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 3E-06x + 0.8753</t>
     </r>
   </si>
   <si>
     <r>
-      <t>y = -2E-20x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+      <t>y = -7E-21x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -8485,22 +8216,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 3E-18x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 2E-18x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -8508,22 +8235,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 4E-16x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 2E-16x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -8531,10 +8254,8 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 4E-14x</t>
     </r>
@@ -8543,10 +8264,8 @@
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -8554,22 +8273,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 4E-12x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 3E-12x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -8577,27 +8292,23 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 3E-06x + 0.8756</t>
     </r>
   </si>
   <si>
     <r>
-      <t>y = -1E-20x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+      <t>y = -8E-21x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -8605,22 +8316,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 2E-18x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 1E-18x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -8628,10 +8335,8 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - 2E-16x</t>
     </r>
@@ -8640,10 +8345,8 @@
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -8651,22 +8354,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 4E-14x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 3E-14x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -8674,22 +8373,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 4E-12x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 3E-12x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -8697,27 +8392,23 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 3E-06x + 0.8758</t>
     </r>
   </si>
   <si>
     <r>
-      <t>y = -2E-20x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+      <t>y = -1E-20x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -8725,22 +8416,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 3E-18x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 4E-18x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -8748,22 +8435,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 3E-16x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 4E-16x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -8771,10 +8454,8 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 4E-14x</t>
     </r>
@@ -8783,10 +8464,8 @@
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -8794,22 +8473,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 4E-12x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 3E-12x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -8817,10 +8492,8 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 3E-06x + 0.876</t>
     </r>
@@ -8834,10 +8507,8 @@
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -8845,22 +8516,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 4E-18x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 5E-18x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -8868,22 +8535,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 3E-16x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 4E-16x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -8891,10 +8554,8 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 4E-14x</t>
     </r>
@@ -8903,10 +8564,8 @@
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -8914,22 +8573,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 4E-12x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 3E-12x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -8937,27 +8592,23 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 2E-06x + 0.8762</t>
     </r>
   </si>
   <si>
     <r>
-      <t>y = -1E-20x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+      <t>y = -6E-21x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -8965,22 +8616,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 1E-18x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 2E-18x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -8988,22 +8635,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 2E-16x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 4E-16x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -9011,22 +8654,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 4E-14x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 3E-14x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -9034,22 +8673,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 4E-12x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 3E-12x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -9057,27 +8692,23 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - 8E-05x + 0.8764</t>
     </r>
   </si>
   <si>
     <r>
-      <t>y = -1E-20x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+      <t>y = 9E-21x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -9085,22 +8716,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 5E-18x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 3E-18x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -9108,22 +8735,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 5E-16x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 5E-16x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -9131,22 +8754,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 1E-14x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 1E-14x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -9154,22 +8773,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 2E-12x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 4E-14x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -9177,10 +8792,8 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 0.0001x + 0.8701</t>
     </r>
@@ -9194,10 +8807,8 @@
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -9205,10 +8816,8 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 4E-18x</t>
     </r>
@@ -9217,10 +8826,8 @@
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -9228,22 +8835,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 6E-16x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 1E-15x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -9251,22 +8854,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 6E-14x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 1E-13x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -9274,22 +8873,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 5E-12x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 6E-12x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -9297,27 +8892,23 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - 3E-05x + 0.8785</t>
     </r>
   </si>
   <si>
     <r>
-      <t>y = -9E-21x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+      <t>y = -3E-21x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -9325,22 +8916,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 3E-18x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 9E-19x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -9348,22 +8935,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 5E-16x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 8E-17x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -9371,10 +8954,8 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 3E-14x</t>
     </r>
@@ -9383,10 +8964,8 @@
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -9394,22 +8973,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 2E-13x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 4E-12x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -9417,27 +8992,23 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - 3E-05x + 0.8762</t>
     </r>
   </si>
   <si>
     <r>
-      <t>y = -7E-21x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+      <t>y = -3E-21x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -9445,22 +9016,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 3E-18x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 1E-18x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -9468,22 +9035,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 4E-16x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 8E-17x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -9491,10 +9054,8 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 3E-14x</t>
     </r>
@@ -9503,10 +9064,8 @@
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -9514,22 +9073,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 1E-13x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 4E-12x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -9537,27 +9092,23 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - 2E-05x + 0.8741</t>
     </r>
   </si>
   <si>
     <r>
-      <t>y = -9E-21x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+      <t>y = 4E-21x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -9565,22 +9116,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 4E-18x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 4E-19x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -9588,22 +9135,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 4E-16x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 8E-17x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -9611,10 +9154,8 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 3E-14x</t>
     </r>
@@ -9623,10 +9164,8 @@
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -9634,22 +9173,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 2E-13x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 4E-12x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -9657,27 +9192,23 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - 2E-05x + 0.8722</t>
     </r>
   </si>
   <si>
     <r>
-      <t>y = -1E-20x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+      <t>y = 2E-20x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -9685,22 +9216,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 4E-18x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 2E-18x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -9708,22 +9235,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 5E-16x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 1E-16x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -9731,22 +9254,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 4E-14x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 2E-14x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -9754,22 +9273,18 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 1E-13x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 3E-12x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -9777,17 +9292,15 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - 2E-05x + 0.8705</t>
     </r>
   </si>
   <si>
     <r>
-      <t>y = -8E-22x</t>
+      <t>y = 2E-20x</t>
     </r>
     <r>
       <rPr>
@@ -9810,7 +9323,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-18x</t>
+      <t xml:space="preserve"> - 3E-18x</t>
     </r>
     <r>
       <rPr>
@@ -9833,7 +9346,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - 4E-16x</t>
+      <t xml:space="preserve"> + 1E-16x</t>
     </r>
     <r>
       <rPr>
@@ -9856,7 +9369,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-14x</t>
+      <t xml:space="preserve"> + 2E-14x</t>
     </r>
     <r>
       <rPr>
@@ -9879,7 +9392,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-13x</t>
+      <t xml:space="preserve"> - 3E-12x</t>
     </r>
     <r>
       <rPr>
@@ -9907,7 +9420,7 @@
   </si>
   <si>
     <r>
-      <t>y = -2E-21x</t>
+      <t>y = 2E-21x</t>
     </r>
     <r>
       <rPr>
@@ -9930,7 +9443,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-18x</t>
+      <t xml:space="preserve"> + 9E-19x</t>
     </r>
     <r>
       <rPr>
@@ -9953,7 +9466,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - 3E-16x</t>
+      <t xml:space="preserve"> - 2E-16x</t>
     </r>
     <r>
       <rPr>
@@ -9999,7 +9512,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-13x</t>
+      <t xml:space="preserve"> - 3E-12x</t>
     </r>
     <r>
       <rPr>
@@ -10027,7 +9540,7 @@
   </si>
   <si>
     <r>
-      <t>y = -6E-21x</t>
+      <t>y = 1E-20x</t>
     </r>
     <r>
       <rPr>
@@ -10050,7 +9563,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-18x</t>
+      <t xml:space="preserve"> - 2E-18x</t>
     </r>
     <r>
       <rPr>
@@ -10073,7 +9586,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-16x</t>
+      <t xml:space="preserve"> + 2E-16x</t>
     </r>
     <r>
       <rPr>
@@ -10096,7 +9609,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-14x</t>
+      <t xml:space="preserve"> - 5E-15x</t>
     </r>
     <r>
       <rPr>
@@ -10119,7 +9632,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-12x</t>
+      <t xml:space="preserve"> - 7E-13x</t>
     </r>
     <r>
       <rPr>
@@ -10147,7 +9660,7 @@
   </si>
   <si>
     <r>
-      <t>y = -6E-21x</t>
+      <t>y = -3E-20x</t>
     </r>
     <r>
       <rPr>
@@ -10170,7 +9683,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-18x</t>
+      <t xml:space="preserve"> + 8E-18x</t>
     </r>
     <r>
       <rPr>
@@ -10193,7 +9706,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - 1E-16x</t>
+      <t xml:space="preserve"> - 7E-16x</t>
     </r>
     <r>
       <rPr>
@@ -10216,7 +9729,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-14x</t>
+      <t xml:space="preserve"> + 5E-14x</t>
     </r>
     <r>
       <rPr>
@@ -10239,7 +9752,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - 4E-12x</t>
+      <t xml:space="preserve"> - 3E-12x</t>
     </r>
     <r>
       <rPr>
@@ -10267,7 +9780,7 @@
   </si>
   <si>
     <r>
-      <t>y = -1E-20x</t>
+      <t>y = 8E-21x</t>
     </r>
     <r>
       <rPr>
@@ -10290,7 +9803,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 4E-18x</t>
+      <t xml:space="preserve"> - 2E-18x</t>
     </r>
     <r>
       <rPr>
@@ -10313,7 +9826,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - 4E-16x</t>
+      <t xml:space="preserve"> + 1E-16x</t>
     </r>
     <r>
       <rPr>
@@ -10336,7 +9849,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-14x</t>
+      <t xml:space="preserve"> - 2E-15x</t>
     </r>
     <r>
       <rPr>
@@ -10359,7 +9872,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 9E-13x</t>
+      <t xml:space="preserve"> - 9E-13x</t>
     </r>
     <r>
       <rPr>
@@ -10387,7 +9900,7 @@
   </si>
   <si>
     <r>
-      <t>y = -5E-21x</t>
+      <t>y = 6E-21x</t>
     </r>
     <r>
       <rPr>
@@ -10410,7 +9923,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-18x</t>
+      <t xml:space="preserve"> - 2E-18x</t>
     </r>
     <r>
       <rPr>
@@ -10433,7 +9946,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - 4E-16x</t>
+      <t xml:space="preserve"> + 3E-17x</t>
     </r>
     <r>
       <rPr>
@@ -10456,7 +9969,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-14x</t>
+      <t xml:space="preserve"> + 2E-14x</t>
     </r>
     <r>
       <rPr>
@@ -10479,7 +9992,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-13x</t>
+      <t xml:space="preserve"> - 3E-12x</t>
     </r>
     <r>
       <rPr>
@@ -10507,7 +10020,7 @@
   </si>
   <si>
     <r>
-      <t>y = -2E-20x</t>
+      <t>y = 9E-21x</t>
     </r>
     <r>
       <rPr>
@@ -10530,7 +10043,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 4E-18x</t>
+      <t xml:space="preserve"> - 2E-18x</t>
     </r>
     <r>
       <rPr>
@@ -10553,30 +10066,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - 6E-16x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 4E-14x</t>
+      <t xml:space="preserve"> + 3E-14x</t>
     </r>
     <r>
       <rPr>
@@ -10599,7 +10089,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-14x</t>
+      <t xml:space="preserve"> - 3E-12x</t>
     </r>
     <r>
       <rPr>
@@ -10627,7 +10117,7 @@
   </si>
   <si>
     <r>
-      <t>y = -4E-21x</t>
+      <t>y = 8E-22x</t>
     </r>
     <r>
       <rPr>
@@ -10650,7 +10140,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-18x</t>
+      <t xml:space="preserve"> + 7E-19x</t>
     </r>
     <r>
       <rPr>
@@ -10673,7 +10163,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - 4E-16x</t>
+      <t xml:space="preserve"> - 2E-16x</t>
     </r>
     <r>
       <rPr>
@@ -10719,7 +10209,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-13x</t>
+      <t xml:space="preserve"> - 4E-12x</t>
     </r>
     <r>
       <rPr>
@@ -10747,7 +10237,7 @@
   </si>
   <si>
     <r>
-      <t>y = 2E-21x</t>
+      <t>y = 3E-21x</t>
     </r>
     <r>
       <rPr>
@@ -10770,7 +10260,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 4E-19x</t>
+      <t xml:space="preserve"> - 9E-19x</t>
     </r>
     <r>
       <rPr>
@@ -10793,7 +10283,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - 1E-16x</t>
+      <t xml:space="preserve"> - 3E-17x</t>
     </r>
     <r>
       <rPr>
@@ -10839,7 +10329,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 5E-13x</t>
+      <t xml:space="preserve"> - 3E-12x</t>
     </r>
     <r>
       <rPr>
@@ -10867,7 +10357,7 @@
   </si>
   <si>
     <r>
-      <t>y = -1E-20x</t>
+      <t>y = -5E-21x</t>
     </r>
     <r>
       <rPr>
@@ -10890,7 +10380,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 5E-18x</t>
+      <t xml:space="preserve"> - 4E-19x</t>
     </r>
     <r>
       <rPr>
@@ -10913,7 +10403,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - 5E-16x</t>
+      <t xml:space="preserve"> + 1E-16x</t>
     </r>
     <r>
       <rPr>
@@ -10936,7 +10426,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-14x</t>
+      <t xml:space="preserve"> + 4E-15x</t>
     </r>
     <r>
       <rPr>
@@ -10959,7 +10449,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-12x</t>
+      <t xml:space="preserve"> - 2E-13x</t>
     </r>
     <r>
       <rPr>
@@ -10987,7 +10477,7 @@
   </si>
   <si>
     <r>
-      <t>y = -1E-20x</t>
+      <t>y = 7E-21x</t>
     </r>
     <r>
       <rPr>
@@ -11010,7 +10500,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 4E-18x</t>
+      <t xml:space="preserve"> - 2E-18x</t>
     </r>
     <r>
       <rPr>
@@ -11033,7 +10523,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - 4E-16x</t>
+      <t xml:space="preserve"> + 7E-17x</t>
     </r>
     <r>
       <rPr>
@@ -11056,30 +10546,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-14x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 9E-13x</t>
+      <t xml:space="preserve"> - 7E-13x</t>
     </r>
     <r>
       <rPr>
@@ -11107,7 +10574,7 @@
   </si>
   <si>
     <r>
-      <t>y = -1E-20x</t>
+      <t>y = 5E-21x</t>
     </r>
     <r>
       <rPr>
@@ -11130,7 +10597,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 5E-18x</t>
+      <t xml:space="preserve"> - 2E-18x</t>
     </r>
     <r>
       <rPr>
@@ -11153,7 +10620,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - 5E-16x</t>
+      <t xml:space="preserve"> + 8E-17x</t>
     </r>
     <r>
       <rPr>
@@ -11176,7 +10643,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-14x</t>
+      <t xml:space="preserve"> - 2E-14x</t>
     </r>
     <r>
       <rPr>
@@ -11199,7 +10666,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - 9E-13x</t>
+      <t xml:space="preserve"> + 3E-12x</t>
     </r>
     <r>
       <rPr>
@@ -11227,7 +10694,7 @@
   </si>
   <si>
     <r>
-      <t>y = 5E-21x</t>
+      <t>y = 4E-21x</t>
     </r>
     <r>
       <rPr>
@@ -11250,7 +10717,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - 1E-18x</t>
+      <t xml:space="preserve"> - 2E-18x</t>
     </r>
     <r>
       <rPr>
@@ -11273,7 +10740,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - 1E-16x</t>
+      <t xml:space="preserve"> + 1E-16x</t>
     </r>
     <r>
       <rPr>
@@ -11296,7 +10763,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 8E-15x</t>
+      <t xml:space="preserve"> - 2E-15x</t>
     </r>
     <r>
       <rPr>
@@ -11319,7 +10786,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-12x</t>
+      <t xml:space="preserve"> - 8E-13x</t>
     </r>
     <r>
       <rPr>
@@ -11347,7 +10814,7 @@
   </si>
   <si>
     <r>
-      <t>y = -2E-21x</t>
+      <t>y = -3E-21x</t>
     </r>
     <r>
       <rPr>
@@ -11370,7 +10837,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-18x</t>
+      <t xml:space="preserve"> + 1E-18x</t>
     </r>
     <r>
       <rPr>
@@ -11393,7 +10860,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - 3E-16x</t>
+      <t xml:space="preserve"> - 2E-16x</t>
     </r>
     <r>
       <rPr>
@@ -11416,7 +10883,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 3E-14x</t>
+      <t xml:space="preserve"> + 4E-14x</t>
     </r>
     <r>
       <rPr>
@@ -11439,7 +10906,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-13x</t>
+      <t xml:space="preserve"> - 4E-12x</t>
     </r>
     <r>
       <rPr>
@@ -11467,7 +10934,30 @@
   </si>
   <si>
     <r>
-      <t>y = 4E-19x</t>
+      <t>y = 1E-20x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF595959"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 3E-18x</t>
     </r>
     <r>
       <rPr>
@@ -11490,7 +10980,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - 1E-16x</t>
+      <t xml:space="preserve"> + 5E-16x</t>
     </r>
     <r>
       <rPr>
@@ -11513,7 +11003,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - 4E-16x</t>
+      <t xml:space="preserve"> - 1E-14x</t>
     </r>
     <r>
       <rPr>
@@ -11536,7 +11026,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-12x</t>
+      <t xml:space="preserve"> + 1E-14x</t>
     </r>
     <r>
       <rPr>
@@ -11564,7 +11054,7 @@
   </si>
   <si>
     <r>
-      <t>y = -8E-22x</t>
+      <t>y = 3E-21x</t>
     </r>
     <r>
       <rPr>
@@ -11587,7 +11077,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-19x</t>
+      <t xml:space="preserve"> + 7E-19x</t>
     </r>
     <r>
       <rPr>
@@ -11610,7 +11100,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - 2E-16x</t>
+      <t xml:space="preserve"> + 7E-17x</t>
     </r>
     <r>
       <rPr>
@@ -11633,7 +11123,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-14x</t>
+      <t xml:space="preserve"> + 2E-15x</t>
     </r>
     <r>
       <rPr>
@@ -11656,7 +11146,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 1E-12x</t>
+      <t xml:space="preserve"> - 9E-13x</t>
     </r>
     <r>
       <rPr>
@@ -11684,7 +11174,7 @@
   </si>
   <si>
     <r>
-      <t>y = 8E-22x</t>
+      <t>y = 1E-21x</t>
     </r>
     <r>
       <rPr>
@@ -11707,30 +11197,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - 5E-21x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 3E-17x</t>
+      <t xml:space="preserve"> - 1E-17x</t>
     </r>
     <r>
       <rPr>
@@ -11753,7 +11220,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - 7E-15x</t>
+      <t xml:space="preserve"> + 3E-14x</t>
     </r>
     <r>
       <rPr>
@@ -11776,7 +11243,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 2E-13x</t>
+      <t xml:space="preserve"> - 4E-12x</t>
     </r>
     <r>
       <rPr>
@@ -11806,8 +11273,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11835,13 +11302,6 @@
       <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -11890,7 +11350,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -12172,11 +11632,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B113"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12560,102 +12020,102 @@
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>94</v>
       </c>
     </row>
